--- a/src/main/resources/fzj_1.xlsx
+++ b/src/main/resources/fzj_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="307">
   <si>
     <t>服务</t>
   </si>
@@ -26,467 +26,820 @@
     <t>返回值</t>
   </si>
   <si>
-    <t>login-server</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.login.controller.LoginController.testHaveUserIdHeader(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Long</t>
-  </si>
-  <si>
-    <t>void</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.login.controller.LoginController.login(com.clsaa.dop.server.login.model.dto.LoginDtoV1)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.login.model.dto.LoginDtoV1</t>
+    <t>mogu_admin</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.PictureRestApi.setCover(com.moxi.mogublog.xo.vo.PictureVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.PictureVO
+org.springframework.validation.BindingResult</t>
   </si>
   <si>
     <t>java.lang.String</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.login.controller.LoginController.logout(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.login.controller.LoginController.verifyToken(java.lang.String)</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>audit-server</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.audit.controller.LogController.addLogV1(com.clsaa.dop.server.audit.model.dto.LogDtoV1)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.audit.model.dto.LogDtoV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.audit.controller.LogController.findLogV1(java.lang.String,java.lang.String,java.lang.String,java.lang.Integer,java.lang.Integer)</t>
+    <t>com.moxi.mogublog.admin.restapi.PictureRestApi.delete(com.moxi.mogublog.xo.vo.PictureVO)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.PictureVO</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.PictureRestApi.edit(com.moxi.mogublog.xo.vo.PictureVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.PictureRestApi.getList(com.moxi.mogublog.xo.vo.PictureVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.PictureRestApi.add(java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>java.util.List
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.RoleRestApi.add(com.moxi.mogublog.xo.vo.RoleVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.RoleVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.RoleRestApi.delete(com.moxi.mogublog.xo.vo.RoleVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.RoleRestApi.getList(com.moxi.mogublog.xo.vo.RoleVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.RoleRestApi.update(com.moxi.mogublog.xo.vo.RoleVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.CategoryMenuRestApi.delete(com.moxi.mogublog.xo.vo.CategoryMenuVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.CategoryMenuVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.CategoryMenuRestApi.getAll(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.CategoryMenuRestApi.stick(com.moxi.mogublog.xo.vo.CategoryMenuVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.CategoryMenuRestApi.add(com.moxi.mogublog.xo.vo.CategoryMenuVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.CategoryMenuRestApi.getButtonAll(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.CategoryMenuRestApi.getList(com.moxi.mogublog.xo.vo.CategoryMenuVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.CategoryMenuRestApi.edit(com.moxi.mogublog.xo.vo.CategoryMenuVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SystemConfigRestApi.editSystemConfig(com.moxi.mogublog.xo.vo.SystemConfigVO)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.SystemConfigVO</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SystemConfigRestApi.getSystemConfig()</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SystemConfigRestApi.cleanRedisByKey(java.util.List)</t>
+  </si>
+  <si>
+    <t>java.util.List</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.FeedbackRestApi.getList(com.moxi.mogublog.xo.vo.FeedbackVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.FeedbackVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.FeedbackRestApi.edit(com.moxi.mogublog.xo.vo.FeedbackVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.FeedbackRestApi.delete(java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.WebNavbarRestApi.getAllList()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.WebNavbarRestApi.delete(com.moxi.mogublog.xo.vo.WebNavbarVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.WebNavbarVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.WebNavbarRestApi.getList(com.moxi.mogublog.xo.vo.WebNavbarVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.WebNavbarRestApi.edit(com.moxi.mogublog.xo.vo.WebNavbarVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.WebNavbarRestApi.add(com.moxi.mogublog.xo.vo.WebNavbarVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.WebVisitRestApi.getList(com.moxi.mogublog.xo.vo.WebVisitVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.WebVisitVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SearchIndexRestApi.initElasticIndex()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SearchIndexRestApi.initSolrIndex()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.ResourceSortRestApi.getList(com.moxi.mogublog.xo.vo.ResourceSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.ResourceSortVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.ResourceSortRestApi.edit(com.moxi.mogublog.xo.vo.ResourceSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.ResourceSortRestApi.stick(com.moxi.mogublog.xo.vo.ResourceSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.ResourceSortRestApi.add(com.moxi.mogublog.xo.vo.ResourceSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.ResourceSortRestApi.delete(java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.TodoRestApi.edit(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.TodoVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+com.moxi.mogublog.xo.vo.TodoVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.TodoRestApi.add(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.TodoVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.TodoRestApi.getList(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.TodoVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.TodoRestApi.toggleAll(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.TodoVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.TodoRestApi.delete(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.TodoVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.LogRestApi.getLogList(com.moxi.mogublog.xo.vo.SysLogVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.SysLogVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.LogRestApi.getExceptionList(com.moxi.mogublog.xo.vo.ExceptionLogVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.ExceptionLogVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysDictTypeRestApi.getList(com.moxi.mogublog.xo.vo.SysDictTypeVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.SysDictTypeVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysDictTypeRestApi.add(com.moxi.mogublog.xo.vo.SysDictTypeVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysDictTypeRestApi.edit(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.SysDictTypeVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+com.moxi.mogublog.xo.vo.SysDictTypeVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysDictTypeRestApi.delete(javax.servlet.http.HttpServletRequest,java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+java.util.List
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.UserRestApi.getList(com.moxi.mogublog.xo.vo.UserVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.UserVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.UserRestApi.edit(com.moxi.mogublog.xo.vo.UserVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.UserRestApi.delete(com.moxi.mogublog.xo.vo.UserVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.UserRestApi.add(com.moxi.mogublog.xo.vo.UserVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.UserRestApi.resetUserPassword(com.moxi.mogublog.xo.vo.UserVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysDictDataRestApi.getListByDictType(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysDictDataRestApi.getListByDictTypeList(java.util.List)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysDictDataRestApi.edit(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.SysDictDataVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+com.moxi.mogublog.xo.vo.SysDictDataVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysDictDataRestApi.add(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.SysDictDataVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysDictDataRestApi.getList(com.moxi.mogublog.xo.vo.SysDictDataVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.SysDictDataVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysDictDataRestApi.delete(javax.servlet.http.HttpServletRequest,java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.AdminRestApi.restPwd(com.moxi.mogublog.xo.vo.AdminVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.AdminVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.AdminRestApi.getList(com.moxi.mogublog.xo.vo.AdminVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.AdminRestApi.getOnlineAdminList(com.moxi.mogublog.xo.vo.AdminVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.AdminRestApi.delete(java.util.List)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.AdminRestApi.forceLogout(java.util.List)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.AdminRestApi.add(com.moxi.mogublog.xo.vo.AdminVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.AdminRestApi.edit(com.moxi.mogublog.xo.vo.AdminVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.PictureSortRestApi.getList(com.moxi.mogublog.xo.vo.PictureSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.PictureSortVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.PictureSortRestApi.add(com.moxi.mogublog.xo.vo.PictureSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.PictureSortRestApi.edit(com.moxi.mogublog.xo.vo.PictureSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.PictureSortRestApi.stick(com.moxi.mogublog.xo.vo.PictureSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.PictureSortRestApi.delete(com.moxi.mogublog.xo.vo.PictureSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.PictureSortRestApi.getPictureSortByUid(com.moxi.mogublog.xo.vo.PictureSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.LoginRestApi.logout()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.LoginRestApi.login(javax.servlet.http.HttpServletRequest,java.lang.String,java.lang.String,java.lang.Boolean)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+java.lang.String
+java.lang.String
+java.lang.Boolean</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.LoginRestApi.info(javax.servlet.http.HttpServletRequest,java.lang.String)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+java.lang.String</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.LoginRestApi.getMenu(javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.LoginRestApi.getWebSiteName()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.LinkRestApi.getList(com.moxi.mogublog.xo.vo.LinkVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.LinkVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.LinkRestApi.edit(com.moxi.mogublog.xo.vo.LinkVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.LinkRestApi.delete(com.moxi.mogublog.xo.vo.LinkVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.LinkRestApi.stick(com.moxi.mogublog.xo.vo.LinkVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.LinkRestApi.add(com.moxi.mogublog.xo.vo.LinkVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SubjectItemRestApi.getList(com.moxi.mogublog.xo.vo.SubjectItemVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.SubjectItemVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SubjectItemRestApi.add(java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SubjectItemRestApi.edit(java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SubjectItemRestApi.sortByCreateTime(java.lang.String,java.lang.Boolean)</t>
   </si>
   <si>
     <t>java.lang.String
-java.lang.String
+java.lang.Boolean</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SubjectItemRestApi.delete(java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysParamsRestApi.edit(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.SysParamsVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+com.moxi.mogublog.xo.vo.SysParamsVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysParamsRestApi.getList(com.moxi.mogublog.xo.vo.SysParamsVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.SysParamsVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysParamsRestApi.add(com.moxi.mogublog.xo.vo.SysParamsVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SysParamsRestApi.delete(java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.IndexRestApi.getBlogCountByTag()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.IndexRestApi.getBlogContributeCount()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.IndexRestApi.getBlogCountByBlogSort()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.IndexRestApi.getVisitByWeek()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.IndexRestApi.init()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.StudyVideoRestApi.edit(com.moxi.mogublog.xo.vo.StudyVideoVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.StudyVideoVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.StudyVideoRestApi.add(com.moxi.mogublog.xo.vo.StudyVideoVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.StudyVideoRestApi.getList(com.moxi.mogublog.xo.vo.StudyVideoVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.StudyVideoRestApi.deleteBatch(java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.WebConfigRestApi.getWebConfig()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.WebConfigRestApi.editWebConfig(com.moxi.mogublog.xo.vo.WebConfigVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.WebConfigVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.ServerMonitorRestApi.getInfo()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.CommentRestApi.add(com.moxi.mogublog.xo.vo.CommentVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.CommentVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.CommentRestApi.delete(com.moxi.mogublog.xo.vo.CommentVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.CommentRestApi.edit(com.moxi.mogublog.xo.vo.CommentVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.CommentRestApi.getList(com.moxi.mogublog.xo.vo.CommentVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.CommentRestApi.deleteBatch(java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SystemRestApi.changePwd(java.lang.String,java.lang.String)</t>
+  </si>
+  <si>
+    <t>java.lang.String
+java.lang.String</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SystemRestApi.getMe()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SystemRestApi.editMe(com.moxi.mogublog.xo.vo.AdminVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SubjectRestApi.getList(com.moxi.mogublog.xo.vo.SubjectVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.SubjectVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SubjectRestApi.add(com.moxi.mogublog.xo.vo.SubjectVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SubjectRestApi.edit(com.moxi.mogublog.xo.vo.SubjectVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.SubjectRestApi.delete(java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogSortRestApi.getList(com.moxi.mogublog.xo.vo.BlogSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.BlogSortVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogSortRestApi.stick(com.moxi.mogublog.xo.vo.BlogSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogSortRestApi.add(com.moxi.mogublog.xo.vo.BlogSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogSortRestApi.edit(com.moxi.mogublog.xo.vo.BlogSortVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogSortRestApi.blogSortByCite()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogSortRestApi.delete(java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogSortRestApi.blogSortByClickCount()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.CreatCodeRestApi.validCode(javax.servlet.http.HttpServletRequest,java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogRestApi.getList(com.moxi.mogublog.xo.vo.BlogVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.BlogVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogRestApi.editBatch(java.util.List)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogRestApi.add(com.moxi.mogublog.xo.vo.BlogVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogRestApi.uploadPics(java.util.List)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogRestApi.edit(com.moxi.mogublog.xo.vo.BlogVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogRestApi.delete(com.moxi.mogublog.xo.vo.BlogVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.BlogRestApi.deleteBatch(java.util.List)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.TagRestApi.add(com.moxi.mogublog.xo.vo.TagVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.xo.vo.TagVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.TagRestApi.stick(com.moxi.mogublog.xo.vo.TagVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.TagRestApi.tagSortByClickCount()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.TagRestApi.getList(com.moxi.mogublog.xo.vo.TagVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.TagRestApi.edit(com.moxi.mogublog.xo.vo.TagVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.TagRestApi.delete(java.util.List,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.admin.restapi.TagRestApi.tagSortByCite()</t>
+  </si>
+  <si>
+    <t>mogu_spider</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.spider.restapi.BlogSpiderRestApi.stopSpiderCsdn()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.spider.restapi.BlogSpiderRestApi.startSpiderCsdn()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.spider.restapi.PictureSpiderRestApi.spiderPicture(com.moxi.mogublog.spider.entity.PictureSpider)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.spider.entity.PictureSpider</t>
+  </si>
+  <si>
+    <t>mogu_search</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.search.restapi.ElasticSearchRestApi.addElasticSearchIndexByUid(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.search.restapi.ElasticSearchRestApi.searchBlog(javax.servlet.http.HttpServletRequest,java.lang.String,java.lang.Integer,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
 java.lang.String
 java.lang.Integer
 java.lang.Integer</t>
   </si>
   <si>
-    <t>com.clsaa.rest.result.Pagination</t>
-  </si>
-  <si>
-    <t>permission-server</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserRoleMappingController.delete(java.lang.Long,java.lang.Long)</t>
+    <t>com.moxi.mogublog.search.restapi.ElasticSearchRestApi.deleteElasticSearchByUid(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.search.restapi.ElasticSearchRestApi.deleteElasticSearchByUids(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.search.restapi.ElasticSearchRestApi.initElasticSearchIndex()</t>
+  </si>
+  <si>
+    <t>mogu_web</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.WechatRestApi.wechatCheck(javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.WechatRestApi.index(javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.WechatRestApi.getWechatOrCodeTicket()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.WechatRestApi.getUserLoginStatus(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.TagRestApi.getArticleByTagUid(javax.servlet.http.HttpServletRequest,java.lang.String,java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+java.lang.String
+java.lang.Long
+java.lang.Long</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.TagRestApi.getTagList()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.getFeedbackList(javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.editUser(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.UserVO)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+com.moxi.mogublog.xo.vo.UserVO</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.replyBlogLink(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.LinkVO)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+com.moxi.mogublog.xo.vo.LinkVO</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.refreshAuth(java.lang.String,java.lang.String)</t>
+  </si>
+  <si>
+    <t>java.lang.Object</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.verifyUser(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.revokeAuth(java.lang.String,java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.bindUserEmail(java.lang.String,java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.getSystemConfig(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.login(java.lang.String,me.zhyd.oauth.model.AuthCallback,javax.servlet.http.HttpServletResponse)</t>
+  </si>
+  <si>
+    <t>java.lang.String
+me.zhyd.oauth.model.AuthCallback
+javax.servlet.http.HttpServletResponse</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.renderAuth(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.decryptData(java.util.Map)</t>
+  </si>
+  <si>
+    <t>java.util.Map</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.deleteUserAccessToken(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.updateUserPwd(javax.servlet.http.HttpServletRequest,java.lang.String,java.lang.String)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+java.lang.String
+java.lang.String</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AuthRestApi.edit(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.FeedbackVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+com.moxi.mogublog.xo.vo.FeedbackVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.IndexRestApi.getHotTag()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.IndexRestApi.getBlogByLevel(javax.servlet.http.HttpServletRequest,java.lang.Integer,java.lang.Long,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+java.lang.Integer
+java.lang.Long
+java.lang.Integer</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.IndexRestApi.getNewBlog(javax.servlet.http.HttpServletRequest,java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+java.lang.Long
+java.lang.Long</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.IndexRestApi.getLink()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.IndexRestApi.getHotBlog()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.IndexRestApi.getWebConfig()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.IndexRestApi.getWebNavbar()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.IndexRestApi.getBlogBySearch(javax.servlet.http.HttpServletRequest,java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.IndexRestApi.recorderVisitPage(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.IndexRestApi.getBlogByTime(javax.servlet.http.HttpServletRequest,java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.IndexRestApi.addLinkCount(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.ResourceRestApi.getBlogByUid(javax.servlet.http.HttpServletRequest,java.lang.String,java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.ClassifyRestApi.getBlogSortList()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.ClassifyRestApi.getArticleByBlogSortUid(javax.servlet.http.HttpServletRequest,java.lang.String,java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.CommentRestApi.reportComment(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.CommentVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+com.moxi.mogublog.xo.vo.CommentVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.CommentRestApi.add(com.moxi.mogublog.xo.vo.CommentVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.CommentRestApi.bindUserEmail(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.CommentRestApi.deleteBatch(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.CommentVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.CommentRestApi.readUserReceiveCommentCount(javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.CommentRestApi.getListByApp(com.moxi.mogublog.xo.vo.CommentVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.CommentRestApi.getUserReceiveCommentCount(javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.CommentRestApi.getList(com.moxi.mogublog.xo.vo.CommentVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.CommentRestApi.getListByUser(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.xo.vo.UserVO)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.CommentRestApi.getPraiseListByUser(java.lang.Long,java.lang.Long)</t>
   </si>
   <si>
     <t>java.lang.Long
 java.lang.Long</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.permission.controller.UserRoleMappingController.addRoleToUser(java.lang.Long,java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.RoleController.findByUserId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.util.List</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.RoleController.findById(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.model.vo.RoleV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.RoleController.deleteById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.RoleController.findByPermissionId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.RoleController.findByName(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.RoleController.createRole(java.lang.Long,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.RoleController.findAllPermission(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.RoleController.getRoleV1Pagination(java.lang.Integer,java.lang.Integer,java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Integer
-java.lang.Integer
-java.lang.Long
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.RoleController.findAllRole(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserDataController.deleteByFieldAndUserId(java.lang.Long,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserDataController.addDataByUserList(java.lang.Long,java.util.List,java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.util.List
-java.lang.Long
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserDataController.deleteById(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserDataController.addData(java.lang.Long,java.lang.Long,java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-java.lang.Long
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserDataController.findByUserId(java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserDataController.findAllIds(java.lang.String,java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.Long
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserDataController.findUserByField(java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserDataController.check(java.lang.String,java.lang.Long,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.Long
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserRuleController.deleteById(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserRuleController.addRule(java.lang.Long,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.String
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserRuleController.getRoleV1Pagination(java.lang.Integer,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>java.lang.Integer
-java.lang.Integer</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserRuleController.findByRoleId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.UserRuleController.findUniqueRule(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.model.vo.UserRuleV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.RolePermissionMappingController.delete(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.RolePermissionMappingController.addPermissionToRole(java.lang.Long,java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.findByUserId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.findAllIdOf2()</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.findByCurrentUserId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.checkUserPermission(java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.findById(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.model.vo.PermissionV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.deleteById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.getPermissionV1Pagination(java.lang.Integer,java.lang.Integer,java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.findByName(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.findByRoleId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.permission.controller.PermissionController.createPermission(java.lang.Long,java.lang.String,java.lang.Integer,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.String
-java.lang.Integer
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>gateway-server</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.gateway.controller.OauthTokenController.tokenEndpoint(java.lang.String,java.lang.String,java.lang.Long,java.lang.String,java.lang.String,javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-java.lang.Long
-java.lang.String
-java.lang.String
-javax.servlet.http.HttpServletRequest
-javax.servlet.http.HttpServletResponse</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.gateway.model.vo.AccessTokenV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.gateway.controller.OauthTokenController.getEpoch()</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>user-server</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.UserController.findUserByEmailAndPassword(java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.model.vo.UserV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.UserController.searchUserByOrganizationIdAndEmailOrPassword(java.lang.String,java.lang.Long,java.lang.Integer,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.Long
-java.lang.Integer
-java.lang.Integer</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.UserController.findUserByIdV1(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.UserController.findLoginUserByIdV1(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.UserController.addUserV1(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.UserController.updateUserPassword(com.clsaa.dop.server.user.model.dto.ResetDtoV1)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.model.dto.ResetDtoV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.AccountController.resetAccountPassword(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.AccountController.getAccountRSAPublicKey()</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.AccountController.registerAccount(com.clsaa.dop.server.user.model.dto.RegisterDtoV1)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.model.dto.RegisterDtoV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.testfeign.TestFeign.test()</t>
-  </si>
-  <si>
-    <t>java.lang.Object</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.testfeign.TestFeign.test2()</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.UserCredentialController.addUserCredential(java.lang.Long,java.lang.String,java.lang.String,com.clsaa.dop.server.user.model.po.UserCredential$Type)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.String
-java.lang.String
-com.clsaa.dop.server.user.model.po.UserCredential$Type</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.UserCredentialController.deleteUserCredential(java.lang.Long,com.clsaa.dop.server.user.model.po.UserCredential$Type)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-com.clsaa.dop.server.user.model.po.UserCredential$Type</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.UserCredentialController.updateUserCredential(java.lang.Long,java.lang.String,com.clsaa.dop.server.user.model.po.UserCredential$Type)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.String
-com.clsaa.dop.server.user.model.po.UserCredential$Type</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.UserCredentialController.getUserCredentialV1ByUserId(java.lang.Long,com.clsaa.dop.server.user.model.po.UserCredential$Type)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.model.vo.UserCredentialV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrganizationController.findOrganizationV1ByUser(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrganizationController.updateOrganizationV1(java.lang.Long,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrganizationController.deleteOrganizationById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrganizationController.findOrganizationV1ById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.model.vo.OrganizationV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrganizationController.addOrganizationV1(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrgUserMappingController.addUserToOrganization(java.lang.Long,java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.user.controller.OrgUserMappingController.deleteUserFromOrganization(java.lang.Long,java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>message-server</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.message.controller.EmailController.test1(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.message.controller.EmailController.addEmailV2(java.lang.String,java.lang.String,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.message.controller.EmailController.test1()</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.message.controller.EmailController.addEmailV1(java.lang.String,java.lang.String,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>pipeline-server</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.ResultOutputController.create(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.ResultOutputController.findByRunningId(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.model.vo.ResultOutputV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.ResultOutputController.notify(java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.PipelineController.deleteById(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.model.po.Pipeline</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.PipelineController.findByIdV1(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.model.vo.PipelineVoV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.PipelineController.getPipelineById(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.PipelineController.getPipelineIdByEnvId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.PipelineController.addUserV1Byjenkinsfile(java.lang.Long,com.clsaa.dop.server.pipeline.model.po.Pipeline)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-com.clsaa.dop.server.pipeline.model.po.Pipeline</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.PipelineController.findAll()</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.PipelineController.getPipelineForTable()</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.PipelineController.addUserV1(java.lang.Long,com.clsaa.dop.server.pipeline.model.po.Pipeline)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.PipelineController.update(com.clsaa.dop.server.pipeline.model.po.Pipeline)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.PipelineController.setAppId(java.lang.String,java.lang.Long,java.lang.Long)</t>
+    <t>com.moxi.mogublog.web.restapi.SearchRestApi.searchBlogByTag(javax.servlet.http.HttpServletRequest,java.lang.String,java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.SearchRestApi.searchBlogBySort(javax.servlet.http.HttpServletRequest,java.lang.String,java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.SearchRestApi.searchBlogByAuthor(javax.servlet.http.HttpServletRequest,java.lang.String,java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.SearchRestApi.getSearchModel()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.SearchRestApi.sqlSearchBlog(java.lang.String,java.lang.Long,java.lang.Long)</t>
   </si>
   <si>
     <t>java.lang.String
@@ -494,691 +847,163 @@
 java.lang.Long</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.build(java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.authorization()</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.delete(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.runs(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.create(com.clsaa.dop.server.pipeline.model.po.Pipeline)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.status(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.jenkinsfile(com.clsaa.dop.server.pipeline.model.po.Pipeline)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.pipeline.controller.JenkinsController.stages(java.lang.String)</t>
-  </si>
-  <si>
-    <t>image-server</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectMemberController.deleteMember(java.lang.Integer,java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Integer
-java.lang.Long
+    <t>com.moxi.mogublog.web.restapi.BlogContentRestApi.getBlogPraiseCountByUid(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.BlogContentRestApi.getSameBlogByBlogUid(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.BlogContentRestApi.praiseBlogByUid(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.BlogContentRestApi.getSameBlogByTagUid(java.lang.String,java.lang.Long,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.BlogContentRestApi.getBlogByUid(java.lang.String,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>java.lang.String
+java.lang.Integer</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.SortRestApi.getSortList()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.SortRestApi.getArticleByMonth(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.SubjectRestApi.getList(com.moxi.mogublog.xo.vo.SubjectVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.SubjectRestApi.getItemList(com.moxi.mogublog.xo.vo.SubjectItemVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.controller.FreemarkerController.index(java.util.Map,java.lang.String)</t>
+  </si>
+  <si>
+    <t>java.util.Map
+java.lang.String</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.controller.FreemarkerController.getAllHtml()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.LoginRestApi.bindUserEmail(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.LoginRestApi.register(com.moxi.mogublog.xo.vo.UserVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.LoginRestApi.logout(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.LoginRestApi.login(com.moxi.mogublog.xo.vo.UserVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.SysDictDataRestApi.getListByDictType(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.SysDictDataRestApi.getListByDictTypeList(java.util.List)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AboutMeRestApi.getContact()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.web.restapi.AboutMeRestApi.getMe()</t>
+  </si>
+  <si>
+    <t>mogu_picture</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.FileRestApi.getPicture(java.lang.String,java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.FileRestApi.uploadPics(javax.servlet.http.HttpServletRequest,java.util.List)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+java.util.List</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.FileRestApi.ckeditorUploadFile(javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.FileRestApi.ckeditorUploadCopyFile()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.FileRestApi.ckeditorUploadToolFile(javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.FileRestApi.uploadPicsByUrl(com.moxi.mougblog.base.vo.FileVO,org.springframework.validation.BindingResult)</t>
+  </si>
+  <si>
+    <t>com.moxi.mougblog.base.vo.FileVO
+org.springframework.validation.BindingResult</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.FileRestApi.cropperPicture(org.springframework.web.multipart.MultipartFile)</t>
+  </si>
+  <si>
+    <t>org.springframework.web.multipart.MultipartFile</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.NetworkDiskRestApi.createFile(com.moxi.mogublog.commons.entity.NetworkDisk)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.commons.entity.NetworkDisk</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.NetworkDiskRestApi.batchDeleteFile(java.util.List)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.NetworkDiskRestApi.getFileTree()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.NetworkDiskRestApi.unzipFile(com.moxi.mogublog.commons.entity.NetworkDisk)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.NetworkDiskRestApi.getFileList(com.moxi.mogublog.commons.entity.NetworkDisk)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.NetworkDiskRestApi.selectFileByFileType(com.moxi.mogublog.commons.entity.NetworkDisk)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.NetworkDiskRestApi.edit(com.moxi.mogublog.picture.vo.NetworkDiskVO)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.vo.NetworkDiskVO</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.NetworkDiskRestApi.moveFile(com.moxi.mogublog.picture.vo.NetworkDiskVO)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.NetworkDiskRestApi.batchMoveFile(com.moxi.mogublog.picture.vo.NetworkDiskVO)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.NetworkDiskRestApi.deleteFile(com.moxi.mogublog.picture.vo.NetworkDiskVO)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.StorageRestApi.editStorageSize(java.lang.String,java.lang.Long)</t>
+  </si>
+  <si>
+    <t>java.lang.String
 java.lang.Long</t>
   </si>
   <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectMemberController.putMember(java.lang.Integer,java.lang.Long,java.lang.Integer,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Integer
-java.lang.Long
-java.lang.Integer
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectMemberController.getMembers(java.lang.Long,java.lang.Integer,java.lang.Integer,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Integer
-java.lang.Integer
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectMemberController.addMember(java.lang.Integer,java.lang.String,java.lang.Integer,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Integer
-java.lang.String
-java.lang.Integer
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectController.addProject(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectController.putProject(java.lang.Long,com.clsaa.dop.server.image.model.dto.ProjectDto1,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-com.clsaa.dop.server.image.model.dto.ProjectDto1
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectController.getProjectById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.model.vo.ProjectVO</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectController.getProjects(java.lang.String,java.lang.Boolean,java.lang.String,java.lang.Integer,java.lang.Integer,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.Boolean
-java.lang.String
-java.lang.Integer
-java.lang.Integer
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectController.deleteProject(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectController.updatePublicStatus(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-java.lang.String
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.StatisticsController.getStatistics(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.model.vo.StatisticVO</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.RepositoryController.deleteRepository(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.RepositoryController.getRepoAddress(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.RepositoryController.getRepositories(java.lang.Integer,java.lang.String,java.lang.String,java.lang.Integer,java.lang.Integer,java.lang.Integer,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Integer
-java.lang.String
-java.lang.String
-java.lang.Integer
-java.lang.Integer
-java.lang.Integer
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ProjectLogsController.getProjectLogs(java.lang.Integer,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Integer,java.lang.Integer,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Integer
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.Integer
-java.lang.Integer
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ImageInfoController.getImages(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Integer,java.lang.Integer,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.Integer
-java.lang.Integer
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ImageInfoController.deleteImage(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.controller.ImageInfoController.getImage(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.image.model.vo.ImageInfoVO</t>
-  </si>
-  <si>
-    <t>code-server</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.MergeRequestController.createMR(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.MergeRequestController.updateMR(java.lang.String,java.lang.String,int,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-int
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.MergeRequestController.findMRList(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.MergeRequestController.findSingleMR(java.lang.String,java.lang.String,int,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-int
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.model.vo.mergeRequest.MergeRequestVo</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.MergeRequestController.acceptMR(java.lang.String,java.lang.String,int,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.deleteProjectMember(java.lang.String,java.lang.String,int,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.deleteProject(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.findProjectEditInfo(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.model.vo.project.ProjectEditVo</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.findProjectMemberList(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.editProjectInfo(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.addProject(com.clsaa.dop.server.code.model.dto.project.ProjectDto)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.model.dto.project.ProjectDto</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.findAllBranchName(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.findProjectUrlList(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.addProjectMember(java.lang.String,java.lang.String,java.lang.String,int,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-java.lang.String
-int
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.changeProjectMemberAccessLevel(java.lang.String,java.lang.String,int,int,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-int
-int
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.starProject(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.findProjectAccessLevel(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.model.vo.project.ProjectAccessLevelVo</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.findProjectList(java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.findProjectDefaultBranch(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.ProjectController.findProject(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.model.vo.project.ProjectVo</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.TagController.deleteTag(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.TagController.findTagList(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.TagController.addTag(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.UserController.addSSHKey(com.clsaa.dop.server.code.model.dto.user.SSHKeyDto)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.model.dto.user.SSHKeyDto</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.UserController.findSSHKeys(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.UserController.addUser(com.clsaa.dop.server.code.model.dto.user.UserDto,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.model.dto.user.UserDto
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.UserController.getUserCredentialV1ByUserId(java.lang.Long,com.clsaa.dop.server.code.feign.UserCredentialType)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-com.clsaa.dop.server.code.feign.UserCredentialType</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.feign.UserCredentialV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.UserController.deleteSSHKey(int,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>int
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.BranchController.addBranch(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.BranchController.findBranchList(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.BranchController.findSingleBranch(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.model.vo.branch.BranchVo</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.BranchController.deleteBranch(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.BranchController.unprotectBranch(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.BranchController.protectBranch(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.BranchController.deleteMergedBranches(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.CommitController.findDiff(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.CommitController.findCommitInfo(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.model.vo.commit.CommitInfoVo</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.CommitController.findCommitList(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.findTreeCommits(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.updateFile(java.lang.String,java.lang.String,com.clsaa.dop.server.code.model.dto.file.FileUpdateDto)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.String
-com.clsaa.dop.server.code.model.dto.file.FileUpdateDto</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.deleteFile(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.findTreeNodes(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.findAllFilePath(java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.findBranchAndTag(java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.controller.FileController.findFileContent(java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.code.model.vo.file.BlobVo</t>
-  </si>
-  <si>
-    <t>application-server</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.ImageController.getImageUrlList(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.PipelineController.findPipelineLogByRunningId(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.PipelineResultV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeYamlController.getServiceByNameSpace(java.lang.Long,java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeYamlController.getNameSpaceByUrlAndToken(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeYamlController.isExistYamlData(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Boolean</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeYamlController.CreateYamlInfoByAppEnvId(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Integer,java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.Integer
-java.lang.Long
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeYamlController.createServiceByNameSpace(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String,java.lang.Integer,java.lang.Integer,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-java.lang.String
-java.lang.String
-java.lang.Integer
-java.lang.Integer
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeYamlController.updateYamlInfoByAppEnvId(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.Integer,java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeYamlController.createYamlFileForDeploy(java.lang.Long,java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeYamlController.getDeploymentByNameSpaceAndService(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.util.HashMap</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeYamlController.updateDeploymentYaml(java.lang.Long,java.lang.Long,com.clsaa.dop.server.application.model.vo.DeploymentYamlV1)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-com.clsaa.dop.server.application.model.vo.DeploymentYamlV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeYamlController.getYamlInfoByAppEnvId(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.KubeYamlDataV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvLogController.addLog(java.lang.Long,java.lang.Long,com.clsaa.dop.server.application.model.vo.LogInfoV1)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-com.clsaa.dop.server.application.model.vo.LogInfoV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvLogController.findLogByAppEnvId(java.lang.Long,java.lang.Integer,java.lang.Integer,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Integer
-java.lang.Integer
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.ProjectController.getMemberInProject(java.lang.Long,java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.ProjectController.createProject(java.lang.Long,java.lang.String,java.lang.Long,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.String
-java.lang.Long
-java.lang.String
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.ProjectController.addMemberToProject(java.lang.Long,java.lang.Long,java.util.List,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-java.util.List
-java.lang.Long</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.ProjectController.findProjectOrderByCtimeWithPage(java.lang.Long,java.lang.Integer,java.lang.Integer,java.lang.Boolean,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Integer
-java.lang.Integer
-java.lang.Boolean
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.ProjectController.findProjectById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.ProjectV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.ProjectController.deleteMemberFromProject(java.lang.Long,java.lang.Long,java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppVarController.findAppVarByAppId(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppVarController.deleteAppVarById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppVarController.updateAppVarById(java.lang.Long,java.lang.Long,com.clsaa.dop.server.application.model.vo.AppVarCreateV1)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-com.clsaa.dop.server.application.model.vo.AppVarCreateV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppVarController.findValueByAppIdAndKey(java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppVarController.createAppVarByAppId(java.lang.Long,java.lang.Long,com.clsaa.dop.server.application.model.vo.AppVarCreateV1)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvController.createEnvironmentByAppId(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-java.lang.String
-java.lang.String
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvController.findEnvironmentDetailById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.AppEnvV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvController.deleteEnvironmentById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvController.findPipelineByAppEnvId(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.PipelineIdAndNameV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvController.findEnvironmentByAppId(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppEnvController.findBuildTagByAppEnvIdAndRunningId(java.lang.Long,java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppUrlInfoController.updateAppUrlInfoByAppId(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.UserController.findUserByUserId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.UserV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.UserController.findUsersNotInProject(java.lang.String,java.lang.Integer,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>java.lang.String
-java.lang.Integer
-java.lang.Integer</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppController.findApplicationByProjectId(java.lang.Long,java.lang.Integer,java.lang.Integer,java.lang.Long,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Integer
-java.lang.Integer
-java.lang.Long
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppController.deleteApp(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppController.findApplicationByCuser(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppController.createApp(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String,java.lang.String,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String
-java.lang.String</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppController.findAppById(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.AppBasicInfoV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.AppController.updateApp(java.lang.Long,java.lang.Long,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeCredentialController.updateUrlAndToken(java.lang.Long,java.lang.Long,com.clsaa.dop.server.application.model.vo.ClusterInfoV1)</t>
-  </si>
-  <si>
-    <t>java.lang.Long
-java.lang.Long
-com.clsaa.dop.server.application.model.vo.ClusterInfoV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeCredentialController.getUrlAndTokenByAppEnvId(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.KubeCredentialWithTokenV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.KubeCredentialController.getUrlByAppEnvId(java.lang.Long,java.lang.Long)</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.model.vo.ClusterUrlV1</t>
-  </si>
-  <si>
-    <t>com.clsaa.dop.server.application.controller.CodeController.findGitUrls(java.lang.Long)</t>
+    <t>com.moxi.mogublog.picture.restapi.StorageRestApi.uploadFile(javax.servlet.http.HttpServletRequest,com.moxi.mogublog.commons.entity.NetworkDisk)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest
+com.moxi.mogublog.commons.entity.NetworkDisk</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.StorageRestApi.getStorage()</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.StorageRestApi.getStorageByAdminUid(java.util.List)</t>
+  </si>
+  <si>
+    <t>com.moxi.mogublog.picture.restapi.StorageRestApi.initStorageSize(java.lang.String,java.lang.Long)</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1268,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1276,10 +1101,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1290,24 +1115,24 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1315,27 +1140,27 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1343,13 +1168,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1357,41 +1182,41 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1399,97 +1224,97 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -1497,13 +1322,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1511,13 +1336,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1525,13 +1350,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1539,69 +1364,69 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1609,13 +1434,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1623,55 +1448,55 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1679,13 +1504,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1693,83 +1518,83 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1777,55 +1602,55 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1833,97 +1658,97 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
         <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1931,13 +1756,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -1945,13 +1770,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1959,27 +1784,27 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1987,41 +1812,41 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
         <v>82</v>
-      </c>
-      <c r="B57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" t="s">
-        <v>101</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -2029,13 +1854,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -2043,13 +1868,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -2057,41 +1882,41 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -2099,13 +1924,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -2113,27 +1938,27 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -2141,13 +1966,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -2155,13 +1980,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -2169,27 +1994,27 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -2197,27 +2022,27 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -2225,13 +2050,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -2239,27 +2064,27 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -2267,69 +2092,69 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="D75" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -2337,55 +2162,55 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C83" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -2393,13 +2218,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -2407,13 +2232,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -2421,27 +2246,27 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -2449,27 +2274,27 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
         <v>122</v>
       </c>
-      <c r="B88" t="s">
-        <v>144</v>
-      </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -2477,27 +2302,27 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2505,27 +2330,27 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C93" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2533,13 +2358,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -2547,27 +2372,27 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C95" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C96" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2575,13 +2400,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C97" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -2589,13 +2414,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C98" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2603,41 +2428,41 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C100" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -2645,13 +2470,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C102" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2659,27 +2484,27 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="D103" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C104" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2687,69 +2512,69 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="C106" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="C108" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C109" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2757,27 +2582,27 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
         <v>149</v>
       </c>
-      <c r="B110" t="s">
-        <v>180</v>
-      </c>
       <c r="C110" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="D110" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="C111" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -2785,13 +2610,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="C112" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -2799,41 +2624,41 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="C113" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -2841,13 +2666,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C116" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -2855,13 +2680,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C117" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -2869,41 +2694,41 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C118" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="D118" t="s">
-        <v>195</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="C119" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C120" t="s">
-        <v>184</v>
+        <v>13</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -2911,13 +2736,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="C121" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -2925,41 +2750,41 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="C122" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="C124" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
@@ -2967,13 +2792,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="C125" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
@@ -2981,83 +2806,83 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C126" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D126" t="s">
-        <v>207</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="C127" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="D127" t="s">
-        <v>209</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="C128" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="C129" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C130" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="D130" t="s">
-        <v>213</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="C131" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -3065,27 +2890,27 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="C132" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="C133" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -3093,13 +2918,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C134" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="D134" t="s">
         <v>7</v>
@@ -3107,27 +2932,27 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="C136" t="s">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -3135,27 +2960,27 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B137" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="C137" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="D137" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>180</v>
+      </c>
+      <c r="B138" t="s">
         <v>182</v>
       </c>
-      <c r="B138" t="s">
-        <v>226</v>
-      </c>
       <c r="C138" t="s">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
@@ -3163,13 +2988,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B139" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="C139" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
@@ -3177,41 +3002,41 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B140" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="C140" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B141" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D141" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B142" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="C142" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
@@ -3219,13 +3044,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B143" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="C143" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
@@ -3233,13 +3058,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B144" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="C144" t="s">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
@@ -3247,13 +3072,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B145" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="C145" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
@@ -3261,69 +3086,69 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B146" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="C146" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="D146" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B147" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="C147" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="D147" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="C148" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="C149" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B150" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="C150" t="s">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
@@ -3331,13 +3156,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B151" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="C151" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
@@ -3345,139 +3170,139 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B152" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="C152" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="D152" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B153" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="C153" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D153" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B154" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="C154" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="D154" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B155" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="C155" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>249</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B156" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D156" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B157" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="D157" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B158" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="C158" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B159" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="C159" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B160" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D160" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B161" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="C161" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
@@ -3485,13 +3310,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B162" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C162" t="s">
-        <v>262</v>
+        <v>7</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
@@ -3499,13 +3324,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B163" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="C163" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -3513,41 +3338,41 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B164" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="C164" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B165" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="C165" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="D165" t="s">
-        <v>266</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B166" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="C166" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
@@ -3555,27 +3380,27 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B167" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="D167" t="s">
-        <v>270</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B168" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="C168" t="s">
-        <v>272</v>
+        <v>30</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
@@ -3583,41 +3408,41 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B169" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="C169" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="D169" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B170" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D170" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B171" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="C171" t="s">
-        <v>277</v>
+        <v>30</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -3625,13 +3450,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B172" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="C172" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
@@ -3639,41 +3464,41 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B173" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="C173" t="s">
-        <v>281</v>
+        <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B174" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="D174" t="s">
-        <v>283</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B175" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="C175" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -3681,27 +3506,27 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B176" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="D176" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B177" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
@@ -3709,13 +3534,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B178" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="C178" t="s">
-        <v>288</v>
+        <v>198</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
@@ -3723,27 +3548,27 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B179" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="C179" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B180" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="C180" t="s">
-        <v>288</v>
+        <v>141</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -3751,13 +3576,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B181" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="C181" t="s">
-        <v>292</v>
+        <v>7</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
@@ -3765,27 +3590,27 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B182" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="D182" t="s">
-        <v>294</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B183" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
@@ -3793,55 +3618,55 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B184" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="D184" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="D185" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="C186" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="C187" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
@@ -3849,55 +3674,55 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B188" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="D188" t="s">
-        <v>303</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" t="s">
         <v>250</v>
       </c>
-      <c r="B189" t="s">
-        <v>304</v>
-      </c>
       <c r="C189" t="s">
-        <v>305</v>
+        <v>198</v>
       </c>
       <c r="D189" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="C190" t="s">
-        <v>307</v>
+        <v>198</v>
       </c>
       <c r="D190" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
@@ -3905,27 +3730,27 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D192" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="C193" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
@@ -3933,27 +3758,27 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="C194" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D194" t="s">
-        <v>313</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="C195" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
@@ -3961,13 +3786,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B196" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="C196" t="s">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
@@ -3975,44 +3800,534 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B197" t="s">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>255</v>
       </c>
       <c r="D197" t="s">
-        <v>318</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B198" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="D198" t="s">
-        <v>320</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B199" t="s">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D199" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>192</v>
+      </c>
+      <c r="B200" t="s">
+        <v>263</v>
+      </c>
+      <c r="C200" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>192</v>
+      </c>
+      <c r="B201" t="s">
+        <v>264</v>
+      </c>
+      <c r="C201" t="s">
+        <v>151</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>192</v>
+      </c>
+      <c r="B202" t="s">
+        <v>265</v>
+      </c>
+      <c r="C202" t="s">
+        <v>114</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>192</v>
+      </c>
+      <c r="B203" t="s">
+        <v>266</v>
+      </c>
+      <c r="C203" t="s">
+        <v>267</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>192</v>
+      </c>
+      <c r="B204" t="s">
+        <v>268</v>
+      </c>
+      <c r="C204" t="s">
+        <v>30</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>192</v>
+      </c>
+      <c r="B205" t="s">
+        <v>269</v>
+      </c>
+      <c r="C205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>192</v>
+      </c>
+      <c r="B206" t="s">
+        <v>270</v>
+      </c>
+      <c r="C206" t="s">
+        <v>71</v>
+      </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>192</v>
+      </c>
+      <c r="B207" t="s">
+        <v>271</v>
+      </c>
+      <c r="C207" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>192</v>
+      </c>
+      <c r="B208" t="s">
+        <v>272</v>
+      </c>
+      <c r="C208" t="s">
+        <v>71</v>
+      </c>
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>192</v>
+      </c>
+      <c r="B209" t="s">
+        <v>273</v>
+      </c>
+      <c r="C209" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>192</v>
+      </c>
+      <c r="B210" t="s">
+        <v>274</v>
+      </c>
+      <c r="C210" t="s">
+        <v>32</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>192</v>
+      </c>
+      <c r="B211" t="s">
+        <v>275</v>
+      </c>
+      <c r="C211" t="s">
+        <v>30</v>
+      </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>192</v>
+      </c>
+      <c r="B212" t="s">
+        <v>276</v>
+      </c>
+      <c r="C212" t="s">
+        <v>30</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>277</v>
+      </c>
+      <c r="B213" t="s">
+        <v>278</v>
+      </c>
+      <c r="C213" t="s">
+        <v>147</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>277</v>
+      </c>
+      <c r="B214" t="s">
+        <v>279</v>
+      </c>
+      <c r="C214" t="s">
+        <v>280</v>
+      </c>
+      <c r="D214" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>277</v>
+      </c>
+      <c r="B215" t="s">
+        <v>281</v>
+      </c>
+      <c r="C215" t="s">
+        <v>105</v>
+      </c>
+      <c r="D215" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>277</v>
+      </c>
+      <c r="B216" t="s">
+        <v>282</v>
+      </c>
+      <c r="C216" t="s">
+        <v>30</v>
+      </c>
+      <c r="D216" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>277</v>
+      </c>
+      <c r="B217" t="s">
+        <v>283</v>
+      </c>
+      <c r="C217" t="s">
+        <v>105</v>
+      </c>
+      <c r="D217" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>277</v>
+      </c>
+      <c r="B218" t="s">
+        <v>284</v>
+      </c>
+      <c r="C218" t="s">
+        <v>285</v>
+      </c>
+      <c r="D218" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>277</v>
+      </c>
+      <c r="B219" t="s">
+        <v>286</v>
+      </c>
+      <c r="C219" t="s">
+        <v>287</v>
+      </c>
+      <c r="D219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>277</v>
+      </c>
+      <c r="B220" t="s">
+        <v>288</v>
+      </c>
+      <c r="C220" t="s">
+        <v>289</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>277</v>
+      </c>
+      <c r="B221" t="s">
+        <v>290</v>
+      </c>
+      <c r="C221" t="s">
+        <v>32</v>
+      </c>
+      <c r="D221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>277</v>
+      </c>
+      <c r="B222" t="s">
+        <v>291</v>
+      </c>
+      <c r="C222" t="s">
+        <v>30</v>
+      </c>
+      <c r="D222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>277</v>
+      </c>
+      <c r="B223" t="s">
+        <v>292</v>
+      </c>
+      <c r="C223" t="s">
+        <v>289</v>
+      </c>
+      <c r="D223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>277</v>
+      </c>
+      <c r="B224" t="s">
+        <v>293</v>
+      </c>
+      <c r="C224" t="s">
+        <v>289</v>
+      </c>
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>277</v>
+      </c>
+      <c r="B225" t="s">
+        <v>294</v>
+      </c>
+      <c r="C225" t="s">
+        <v>289</v>
+      </c>
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>277</v>
+      </c>
+      <c r="B226" t="s">
+        <v>295</v>
+      </c>
+      <c r="C226" t="s">
+        <v>296</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>277</v>
+      </c>
+      <c r="B227" t="s">
+        <v>297</v>
+      </c>
+      <c r="C227" t="s">
+        <v>296</v>
+      </c>
+      <c r="D227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>277</v>
+      </c>
+      <c r="B228" t="s">
+        <v>298</v>
+      </c>
+      <c r="C228" t="s">
+        <v>296</v>
+      </c>
+      <c r="D228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>277</v>
+      </c>
+      <c r="B229" t="s">
+        <v>299</v>
+      </c>
+      <c r="C229" t="s">
+        <v>296</v>
+      </c>
+      <c r="D229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>277</v>
+      </c>
+      <c r="B230" t="s">
+        <v>300</v>
+      </c>
+      <c r="C230" t="s">
+        <v>301</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>277</v>
+      </c>
+      <c r="B231" t="s">
+        <v>302</v>
+      </c>
+      <c r="C231" t="s">
+        <v>303</v>
+      </c>
+      <c r="D231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>277</v>
+      </c>
+      <c r="B232" t="s">
+        <v>304</v>
+      </c>
+      <c r="C232" t="s">
+        <v>30</v>
+      </c>
+      <c r="D232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>277</v>
+      </c>
+      <c r="B233" t="s">
+        <v>305</v>
+      </c>
+      <c r="C233" t="s">
+        <v>32</v>
+      </c>
+      <c r="D233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>277</v>
+      </c>
+      <c r="B234" t="s">
+        <v>306</v>
+      </c>
+      <c r="C234" t="s">
+        <v>301</v>
+      </c>
+      <c r="D234" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
